--- a/FeB/ProektNew/Docs/Finance.xlsx
+++ b/FeB/ProektNew/Docs/Finance.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
   <si>
     <t>Київський національний університет імені Тараса Шевченка</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>NoName</t>
+  </si>
+  <si>
+    <t>Рік 1</t>
+  </si>
+  <si>
+    <t>Рік2</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -810,6 +816,15 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -823,7 +838,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -933,9 +948,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -947,9 +959,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -1032,151 +1041,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1195,24 +1059,183 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1519,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1551,10 +1574,10 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -1563,130 +1586,130 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="83"/>
-      <c r="L7" s="83"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="82"/>
-      <c r="L8" s="82"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="80"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="82"/>
-      <c r="L9" s="82"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="80"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="82"/>
-      <c r="L10" s="82"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="80"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="79"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="107"/>
+      <c r="G12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="93" t="s">
+      <c r="H12" s="102"/>
+      <c r="I12" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="101">
         <v>2020</v>
       </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="96">
+      <c r="K12" s="102"/>
+      <c r="L12" s="101">
         <v>2021</v>
       </c>
-      <c r="M12" s="98"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="4" t="s">
         <v>71</v>
       </c>
@@ -1699,7 +1722,7 @@
       <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1744,13 +1767,13 @@
       <c r="I14" s="7">
         <v>9</v>
       </c>
-      <c r="J14" s="138">
+      <c r="J14" s="85">
         <v>10</v>
       </c>
       <c r="K14" s="14">
         <v>11</v>
       </c>
-      <c r="L14" s="138">
+      <c r="L14" s="85">
         <v>12</v>
       </c>
       <c r="M14" s="14">
@@ -1758,75 +1781,75 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="135"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="82"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="135"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
       <c r="J16" s="8"/>
       <c r="K16" s="13"/>
       <c r="L16" s="8"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="60"/>
-    </row>
-    <row r="18" spans="1:16" s="64" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:16" s="62" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60">
         <v>6108</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="44">
         <f>(H18+G18+F18+E18)*C18*D18/100+C18*D18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="137"/>
-      <c r="K18" s="63" t="s">
+      <c r="J18" s="84"/>
+      <c r="K18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="63" t="s">
+      <c r="L18" s="84"/>
+      <c r="M18" s="61" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1844,7 +1867,7 @@
         <v>15302</v>
       </c>
       <c r="E19" s="43">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43">
@@ -1853,30 +1876,30 @@
       <c r="H19" s="43">
         <v>20</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="94">
         <f t="shared" ref="I19:I25" si="0">C19*D19+C19*D19*(E19+F19+H19+G19)/100</f>
-        <v>29838.9</v>
-      </c>
-      <c r="J19" s="139">
+        <v>29685.879999999997</v>
+      </c>
+      <c r="J19" s="86">
         <v>4</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="97">
         <f>J19*I19</f>
-        <v>119355.6</v>
-      </c>
-      <c r="L19" s="139">
+        <v>118743.51999999999</v>
+      </c>
+      <c r="L19" s="86">
         <v>12</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="97">
         <f>L19*I19</f>
-        <v>358066.80000000005</v>
+        <v>356230.55999999994</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="140">
+      <c r="P19" s="87">
         <f>SUM(I19:I22)*1.22</f>
-        <v>113038.856</v>
+        <v>104143.32359999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -1893,7 +1916,7 @@
         <v>15302</v>
       </c>
       <c r="E20" s="43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43">
@@ -1902,30 +1925,30 @@
       <c r="H20" s="43">
         <v>25</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="94">
         <f>C20*D20+C20*D20*(E20+F20+H20+G20)/100</f>
-        <v>30604</v>
-      </c>
-      <c r="J20" s="139">
+        <v>27543.599999999999</v>
+      </c>
+      <c r="J20" s="86">
         <v>4</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="97">
         <f>J20*I20</f>
-        <v>122416</v>
-      </c>
-      <c r="L20" s="139">
+        <v>110174.39999999999</v>
+      </c>
+      <c r="L20" s="86">
         <v>12</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="97">
         <f>L20*I20</f>
-        <v>367248</v>
+        <v>330523.19999999995</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="140">
+      <c r="P20" s="87">
         <f>SUM(I19:I22)*2*1.22</f>
-        <v>226077.712</v>
+        <v>208286.64719999998</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -1942,44 +1965,44 @@
         <v>10846</v>
       </c>
       <c r="E21" s="36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="36">
         <v>15</v>
       </c>
       <c r="H21" s="36"/>
-      <c r="I21" s="44">
+      <c r="I21" s="94">
         <f t="shared" si="0"/>
-        <v>17895.900000000001</v>
-      </c>
-      <c r="J21" s="139">
+        <v>15726.7</v>
+      </c>
+      <c r="J21" s="86">
         <v>4</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="97">
         <f t="shared" ref="K21:K25" si="1">J21*I21</f>
-        <v>71583.600000000006</v>
-      </c>
-      <c r="L21" s="139">
+        <v>62906.8</v>
+      </c>
+      <c r="L21" s="86">
         <v>12</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="97">
         <f t="shared" ref="M21:M25" si="2">L21*I21</f>
-        <v>214750.80000000002</v>
+        <v>188720.40000000002</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P21" s="140">
+      <c r="P21" s="87">
         <f>SUM(I19:I22)*3*1.22</f>
-        <v>339116.56800000003</v>
+        <v>312429.97079999995</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="41">
         <v>4</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="36">
@@ -1989,42 +2012,42 @@
         <v>9544</v>
       </c>
       <c r="E22" s="36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="44">
+      <c r="I22" s="94">
         <f t="shared" si="0"/>
-        <v>14316</v>
-      </c>
-      <c r="J22" s="139">
+        <v>12407.2</v>
+      </c>
+      <c r="J22" s="86">
         <v>4</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="97">
         <f t="shared" si="1"/>
-        <v>57264</v>
-      </c>
-      <c r="L22" s="139">
+        <v>49628.800000000003</v>
+      </c>
+      <c r="L22" s="86">
         <v>12</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="97">
         <f t="shared" si="2"/>
-        <v>171792</v>
+        <v>148886.40000000002</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P22" s="140">
+      <c r="P22" s="87">
         <f>I26*1.22*3</f>
-        <v>472219.05600000004</v>
+        <v>445532.45879999996</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A23" s="41">
         <v>5</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="36">
@@ -2041,21 +2064,21 @@
         <v>15</v>
       </c>
       <c r="H23" s="36"/>
-      <c r="I23" s="44">
+      <c r="I23" s="94">
         <f t="shared" si="0"/>
         <v>13838.8</v>
       </c>
-      <c r="J23" s="139">
+      <c r="J23" s="86">
         <v>0</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="139">
+      <c r="L23" s="86">
         <v>9</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="97">
         <f t="shared" si="2"/>
         <v>124549.2</v>
       </c>
@@ -2067,7 +2090,7 @@
       <c r="A24" s="41">
         <v>6</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="36">
@@ -2084,21 +2107,21 @@
         <v>15</v>
       </c>
       <c r="H24" s="36"/>
-      <c r="I24" s="44">
+      <c r="I24" s="94">
         <f t="shared" si="0"/>
         <v>13838.8</v>
       </c>
-      <c r="J24" s="139">
+      <c r="J24" s="86">
         <v>0</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="139">
+      <c r="L24" s="86">
         <v>9</v>
       </c>
-      <c r="M24" s="47">
+      <c r="M24" s="97">
         <f t="shared" si="2"/>
         <v>124549.2</v>
       </c>
@@ -2107,13 +2130,13 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="49">
+      <c r="A25" s="48">
         <v>12</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <v>1</v>
       </c>
       <c r="D25" s="43">
@@ -2125,21 +2148,21 @@
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="52">
+      <c r="I25" s="95">
         <f t="shared" si="0"/>
         <v>8689.2000000000007</v>
       </c>
-      <c r="J25" s="139">
+      <c r="J25" s="86">
         <v>0</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="139">
+      <c r="L25" s="86">
         <v>9</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="97">
         <f t="shared" si="2"/>
         <v>78202.8</v>
       </c>
@@ -2147,33 +2170,33 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="55" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" s="53" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="52">
         <f>SUM(C19:C25)</f>
         <v>7</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54">
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="96">
         <f>SUM(I19:I25)</f>
-        <v>129021.6</v>
-      </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54">
-        <f t="shared" ref="J26:K26" si="3">SUM(K19:K25)</f>
-        <v>370619.2</v>
-      </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54">
+        <v>121730.18</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="96">
+        <f t="shared" ref="K26" si="3">SUM(K19:K25)</f>
+        <v>341453.51999999996</v>
+      </c>
+      <c r="L26" s="52"/>
+      <c r="M26" s="96">
         <f t="shared" ref="M26" si="4">SUM(M19:M25)</f>
-        <v>1439158.8</v>
+        <v>1351661.76</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -2183,9 +2206,9 @@
       <c r="H27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="140">
+      <c r="P27" s="87">
         <f>K26*1.22</f>
-        <v>452155.424</v>
+        <v>416573.29439999996</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -2200,13 +2223,21 @@
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="P28" s="140">
+      <c r="P28" s="87">
         <f>M26*1.22</f>
-        <v>1755773.736</v>
+        <v>1649027.3472</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A8:I8"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L12:M12"/>
@@ -2219,15 +2250,7 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A7:I7"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.23" bottom="0.2" header="0.2" footer="0.2"/>
@@ -2244,7 +2267,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2265,46 +2288,46 @@
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F7" s="17"/>
@@ -2312,51 +2335,51 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-    </row>
-    <row r="10" spans="1:9" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+    </row>
+    <row r="10" spans="1:9" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="56"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
@@ -2371,33 +2394,33 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="141"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="63">
         <v>2</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="63">
         <v>60000</v>
       </c>
       <c r="H13" s="22">
@@ -2409,9 +2432,9 @@
       <c r="A14" s="22">
         <v>2</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2424,9 +2447,9 @@
       <c r="A15" s="22">
         <v>3</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -2435,13 +2458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="66" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -2451,26 +2474,26 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="22" t="s">
         <v>49</v>
       </c>
@@ -2480,7 +2503,7 @@
       <c r="G18" s="22">
         <v>1337.5</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="65">
         <f>(F18*G18)</f>
         <v>1337.5</v>
       </c>
@@ -2489,11 +2512,11 @@
       <c r="A19" s="22">
         <v>3</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="22" t="s">
         <v>49</v>
       </c>
@@ -2503,70 +2526,70 @@
       <c r="G19" s="22">
         <v>293</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="65">
         <f>(F19*G19)</f>
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67">
+    <row r="20" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="65">
         <v>3</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="22" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="22">
         <v>1</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="65">
         <v>2140</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="65">
         <f>+(F20*G20)</f>
         <v>2140</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="68">
+      <c r="H21" s="66">
         <f>SUM(H18:H20)</f>
         <v>3770.5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
     </row>
     <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>1</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="22" t="s">
         <v>67</v>
       </c>
@@ -2576,51 +2599,51 @@
       <c r="G23" s="22">
         <v>81</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="67">
         <f>(F23*G23)</f>
         <v>972</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="70">
+      <c r="A24" s="68">
         <v>2</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="70" t="s">
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="68">
+      <c r="H25" s="66">
         <f>SUM(H23:H24)</f>
         <v>972</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="66" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="114" t="s">
+    <row r="26" spans="1:10" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
+      <c r="B26" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="68">
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="66">
         <f>H16+H21+H25</f>
         <v>124742.5</v>
       </c>
@@ -2688,6 +2711,14 @@
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
@@ -2701,17 +2732,9 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
@@ -2725,7 +2748,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2746,47 +2769,47 @@
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E3" s="109"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F6" s="17"/>
@@ -2794,42 +2817,42 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
     </row>
     <row r="10" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
@@ -2838,14 +2861,14 @@
       <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130" t="s">
+      <c r="D10" s="150"/>
+      <c r="E10" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="150"/>
       <c r="G10" s="21" t="s">
         <v>36</v>
       </c>
@@ -2863,14 +2886,14 @@
       <c r="B11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128">
+      <c r="D11" s="147"/>
+      <c r="E11" s="148">
         <v>2</v>
       </c>
-      <c r="F11" s="128"/>
+      <c r="F11" s="148"/>
       <c r="G11" s="23">
         <v>5</v>
       </c>
@@ -2888,14 +2911,14 @@
       <c r="B12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128">
+      <c r="D12" s="147"/>
+      <c r="E12" s="148">
         <v>2</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="148"/>
       <c r="G12" s="23">
         <v>5</v>
       </c>
@@ -2913,14 +2936,14 @@
       <c r="B13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128">
+      <c r="D13" s="147"/>
+      <c r="E13" s="148">
         <v>2</v>
       </c>
-      <c r="F13" s="128"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="23">
         <v>5</v>
       </c>
@@ -2932,16 +2955,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="24">
         <f>SUM(I11:I13)</f>
         <v>256000</v>
@@ -2989,6 +3012,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
@@ -3001,11 +3029,6 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
@@ -3019,7 +3042,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3038,12 +3061,12 @@
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -3058,132 +3081,132 @@
       <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C3" s="134"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-    </row>
-    <row r="9" spans="1:10" s="75" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+    </row>
+    <row r="9" spans="1:10" s="73" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="74"/>
-    </row>
-    <row r="10" spans="1:10" s="75" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="76">
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="74">
         <v>1</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="76">
         <v>1</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="74">
         <v>2000000</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="74">
         <f>E10*D10</f>
         <v>2000000</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="78"/>
-    </row>
-    <row r="11" spans="1:10" s="75" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="76">
+      <c r="H10" s="72"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:10" s="73" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="74">
         <v>3</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="76">
         <v>1</v>
       </c>
-      <c r="E11" s="141">
+      <c r="E11" s="88">
         <v>29999</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="74">
         <f>E11*D11</f>
         <v>29999</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
@@ -3201,7 +3224,7 @@
         <v>2029999</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="80"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
@@ -3214,7 +3237,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="H13" s="80"/>
+      <c r="H13" s="78"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -3223,7 +3246,7 @@
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3238,7 +3261,7 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="58"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -3247,22 +3270,22 @@
       <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="59"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="80"/>
+      <c r="H19" s="78"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H20" s="80"/>
+      <c r="H20" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3284,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3296,256 +3319,372 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="93" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="149"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="149"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="92"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="92"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="149"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="148">
+      <c r="B6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*1.22</f>
-        <v>113038.856</v>
-      </c>
-      <c r="C6" s="148">
+        <v>104143.32359999999</v>
+      </c>
+      <c r="C6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*1.22</f>
-        <v>113038.856</v>
-      </c>
-      <c r="D6" s="150">
+        <v>104143.32359999999</v>
+      </c>
+      <c r="D6" s="99">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*2*1.22</f>
-        <v>226077.712</v>
-      </c>
-      <c r="E6" s="148">
+        <v>208286.64719999998</v>
+      </c>
+      <c r="E6" s="100">
+        <f>SUM(B6:D6)</f>
+        <v>416573.29439999996</v>
+      </c>
+      <c r="F6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
-        <v>472219.05600000004</v>
-      </c>
-      <c r="F6" s="148">
+        <v>445532.45879999996</v>
+      </c>
+      <c r="G6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
-        <v>472219.05600000004</v>
-      </c>
-      <c r="G6" s="148">
+        <v>445532.45879999996</v>
+      </c>
+      <c r="H6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*3*1.22</f>
-        <v>339116.56800000003</v>
-      </c>
-      <c r="H6" s="148">
+        <v>312429.97079999995</v>
+      </c>
+      <c r="I6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
-        <v>472219.05600000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+        <v>445532.45879999996</v>
+      </c>
+      <c r="J6" s="98">
+        <f>SUM(F6:I6)</f>
+        <v>1649027.3471999997</v>
+      </c>
+      <c r="K6" s="98">
+        <f>SUM(E6,J6)</f>
+        <v>2065600.6415999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="150">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="99">
         <f>SUM('КЕКВ 2210 матеріали'!H21,'КЕКВ 2210 матеріали'!H25)</f>
         <v>4742.5</v>
       </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
+      <c r="E7" s="100">
+        <f t="shared" ref="E7:E12" si="0">SUM(B7:D7)</f>
+        <v>4742.5</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98">
+        <f t="shared" ref="J7:J12" si="1">SUM(F7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="98">
+        <f t="shared" ref="K7:K12" si="2">SUM(E7,J7)</f>
+        <v>4742.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98">
         <f>SUM('КЕКВ 3110 Обладнання'!F12)</f>
         <v>2029999</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="145" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="100">
+        <f t="shared" si="0"/>
+        <v>2029999</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="98">
+        <f t="shared" si="2"/>
+        <v>2029999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98">
         <v>128000</v>
       </c>
-      <c r="G9" s="148">
+      <c r="H9" s="98">
         <v>68000</v>
       </c>
-      <c r="H9" s="148">
+      <c r="I9" s="98">
         <v>60000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="J9" s="98">
+        <f t="shared" si="1"/>
+        <v>256000</v>
+      </c>
+      <c r="K9" s="98">
+        <f t="shared" si="2"/>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="98">
         <f>SUM(B6:B9,B11)/9</f>
-        <v>12559.872888888889</v>
-      </c>
-      <c r="C10" s="148">
-        <f t="shared" ref="C10:H10" si="0">SUM(C6:C9,C11)/9</f>
-        <v>238115.31733333334</v>
-      </c>
-      <c r="D10" s="150">
+        <v>11571.480399999999</v>
+      </c>
+      <c r="C10" s="98">
+        <f t="shared" ref="C10:I10" si="3">SUM(C6:C9,C11)/9</f>
+        <v>237126.92484444441</v>
+      </c>
+      <c r="D10" s="99">
+        <f t="shared" si="3"/>
+        <v>23669.905244444442</v>
+      </c>
+      <c r="E10" s="100">
         <f t="shared" si="0"/>
-        <v>25646.690222222223</v>
-      </c>
-      <c r="E10" s="148">
+        <v>272368.31048888888</v>
+      </c>
+      <c r="F10" s="98">
+        <f t="shared" si="3"/>
+        <v>49503.606533333332</v>
+      </c>
+      <c r="G10" s="98">
+        <f t="shared" si="3"/>
+        <v>63725.828755555543</v>
+      </c>
+      <c r="H10" s="98">
+        <f t="shared" si="3"/>
+        <v>48936.66342222222</v>
+      </c>
+      <c r="I10" s="98">
+        <f t="shared" si="3"/>
+        <v>62836.939866666653</v>
+      </c>
+      <c r="J10" s="98">
+        <f t="shared" si="1"/>
+        <v>225003.03857777774</v>
+      </c>
+      <c r="K10" s="98">
+        <f t="shared" si="2"/>
+        <v>497371.34906666662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100">
         <f t="shared" si="0"/>
-        <v>52468.784000000007</v>
-      </c>
-      <c r="F10" s="148">
+        <v>0</v>
+      </c>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98">
+        <v>60000</v>
+      </c>
+      <c r="I11" s="98">
+        <v>60000</v>
+      </c>
+      <c r="J11" s="98">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="K11" s="98">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="98">
+        <f>SUM(B6:B11)</f>
+        <v>115714.80399999999</v>
+      </c>
+      <c r="C12" s="98">
+        <f t="shared" ref="C12:I12" si="4">SUM(C6:C11)</f>
+        <v>2371269.248444444</v>
+      </c>
+      <c r="D12" s="99">
+        <f t="shared" si="4"/>
+        <v>236699.05244444442</v>
+      </c>
+      <c r="E12" s="100">
         <f t="shared" si="0"/>
-        <v>66691.006222222233</v>
-      </c>
-      <c r="G10" s="148">
-        <f t="shared" si="0"/>
-        <v>51901.840888888895</v>
-      </c>
-      <c r="H10" s="148">
-        <f t="shared" si="0"/>
-        <v>65802.117333333343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148">
-        <v>60000</v>
-      </c>
-      <c r="H11" s="148">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="148">
-        <f>SUM(B6:B11)</f>
-        <v>125598.72888888889</v>
-      </c>
-      <c r="C12" s="148">
-        <f t="shared" ref="C12:H12" si="1">SUM(C6:C11)</f>
-        <v>2381153.1733333333</v>
-      </c>
-      <c r="D12" s="150">
+        <v>2723683.1048888885</v>
+      </c>
+      <c r="F12" s="98">
+        <f t="shared" si="4"/>
+        <v>495036.06533333327</v>
+      </c>
+      <c r="G12" s="98">
+        <f t="shared" si="4"/>
+        <v>637258.28755555546</v>
+      </c>
+      <c r="H12" s="98">
+        <f t="shared" si="4"/>
+        <v>489366.63422222214</v>
+      </c>
+      <c r="I12" s="98">
+        <f t="shared" si="4"/>
+        <v>628369.39866666659</v>
+      </c>
+      <c r="J12" s="98">
         <f t="shared" si="1"/>
-        <v>256466.90222222221</v>
-      </c>
-      <c r="E12" s="148">
-        <f t="shared" si="1"/>
-        <v>524687.84000000008</v>
-      </c>
-      <c r="F12" s="148">
-        <f t="shared" si="1"/>
-        <v>666910.06222222233</v>
-      </c>
-      <c r="G12" s="148">
-        <f t="shared" si="1"/>
-        <v>519018.40888888889</v>
-      </c>
-      <c r="H12" s="148">
-        <f t="shared" si="1"/>
-        <v>658021.17333333346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+        <v>2250030.3857777771</v>
+      </c>
+      <c r="K12" s="98">
+        <f t="shared" si="2"/>
+        <v>4973713.4906666651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="98">
         <f>SUM(B12:C12)</f>
-        <v>2506751.9022222222</v>
-      </c>
-      <c r="D13" s="149"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="149"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="145" t="s">
+        <v>2486984.052444444</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="148">
+      <c r="B15" s="98">
         <f>SUM(B13,D12)</f>
-        <v>2763218.8044444444</v>
-      </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="148">
-        <f>SUM(E12:H12)</f>
-        <v>2368637.4844444445</v>
-      </c>
+        <v>2723683.1048888885</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="98">
+        <f>SUM(F12:I12)</f>
+        <v>2250030.3857777771</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FeB/ProektNew/Docs/Finance.xlsx
+++ b/FeB/ProektNew/Docs/Finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="1116" windowWidth="9672" windowHeight="8832" activeTab="4"/>
+    <workbookView xWindow="1056" yWindow="1116" windowWidth="9672" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="Проект штатного розпису на 2019" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <t>Київський національний університет імені Тараса Шевченка</t>
   </si>
@@ -282,15 +282,9 @@
     <t>к-ть місяців</t>
   </si>
   <si>
-    <t>Костильов, д.наук, старший н.с.</t>
-  </si>
-  <si>
     <t>Оліх, д. наук, доцент</t>
   </si>
   <si>
-    <t>канд. наук</t>
-  </si>
-  <si>
     <t>Лозицький</t>
   </si>
   <si>
@@ -310,12 +304,6 @@
   </si>
   <si>
     <t>Відень</t>
-  </si>
-  <si>
-    <t>Параметричний аналізатор Keithley 4200A-SCS</t>
-  </si>
-  <si>
-    <t>Для високоточного та швидкісного вимірювання вольт-амперних та вольт-фарадных характеристик</t>
   </si>
   <si>
     <t>Ноутбук Asus TUF Gaming FX505DU-AL079</t>
@@ -431,12 +419,66 @@
   <si>
     <t>Рік2</t>
   </si>
+  <si>
+    <t>Вимірювальна платформа Keithley 4200A-SCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вимірювальний модуль Keithley 4200-SMU </t>
+  </si>
+  <si>
+    <t>Для високоточного та швидкісного вимірювання вольт-амперних характеристик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адаптери Keithley 237-BNC-TRX Male BNC to 3-lug Female Triax </t>
+  </si>
+  <si>
+    <t>Адаптери Keithley 237-TRX-BAR 3-lug Triax Barrel Adapter (female to female)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адаптери Keithley 237-TRX-T 3-slot Male to Dual 3-lug Female Triax Tee </t>
+  </si>
+  <si>
+    <t>ВСЬОГО за 2020:</t>
+  </si>
+  <si>
+    <t>на 2021 рік</t>
+  </si>
+  <si>
+    <t>ВСЬОГО за 2021:</t>
+  </si>
+  <si>
+    <t>ВСЬОГО по проєкту:</t>
+  </si>
+  <si>
+    <t>Для високоточного та швидкісного вимірювання вольт-фарадних характеристик</t>
+  </si>
+  <si>
+    <t>Вимірювальний модуль Keithley 4210-СVU</t>
+  </si>
+  <si>
+    <t>Вимірювальний модуль Keithley 4200A-CVIV</t>
+  </si>
+  <si>
+    <t>Адаптери Keithley 237-BNC-TRX Male BNC to 3-lug Female Triax</t>
+  </si>
+  <si>
+    <t>Адаптери Keithley 237-TRX-T 3-slot Male to Dual 3-lug Female Triax Tee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вимірювальний кабель Keithley 4200-TRX-2 </t>
+  </si>
+  <si>
+    <t>Костильов, д.наук, проф</t>
+  </si>
+  <si>
+    <t>Власюк, канд. наук</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -553,6 +595,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -562,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -824,6 +873,30 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -838,7 +911,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1020,9 +1093,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1082,6 +1152,36 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,107 +1192,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1202,6 +1203,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1214,6 +1224,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1236,6 +1306,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1542,7 +1645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -1574,10 +1677,10 @@
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -1586,130 +1689,130 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="80"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="80"/>
-      <c r="L8" s="80"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="79"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="80"/>
-      <c r="L9" s="80"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="79"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="79"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="79"/>
-      <c r="L11" s="79"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="101" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="105" t="s">
+      <c r="H12" s="111"/>
+      <c r="I12" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="101">
+      <c r="J12" s="110">
         <v>2020</v>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="101">
+      <c r="K12" s="111"/>
+      <c r="L12" s="110">
         <v>2021</v>
       </c>
-      <c r="M12" s="102"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="4" t="s">
         <v>71</v>
       </c>
@@ -1722,7 +1825,7 @@
       <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1767,13 +1870,13 @@
       <c r="I14" s="7">
         <v>9</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="84">
         <v>10</v>
       </c>
       <c r="K14" s="14">
         <v>11</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="84">
         <v>12</v>
       </c>
       <c r="M14" s="14">
@@ -1781,50 +1884,50 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="82"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="8"/>
       <c r="K16" s="13"/>
       <c r="L16" s="8"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="83"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="58"/>
-      <c r="L17" s="83"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:16" s="62" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.35">
@@ -1844,11 +1947,11 @@
         <f>(H18+G18+F18+E18)*C18*D18/100+C18*D18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="84"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="84"/>
+      <c r="L18" s="83"/>
       <c r="M18" s="61" t="s">
         <v>66</v>
       </c>
@@ -1876,28 +1979,28 @@
       <c r="H19" s="43">
         <v>20</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="93">
         <f t="shared" ref="I19:I25" si="0">C19*D19+C19*D19*(E19+F19+H19+G19)/100</f>
         <v>29685.879999999997</v>
       </c>
-      <c r="J19" s="86">
+      <c r="J19" s="85">
         <v>4</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="96">
         <f>J19*I19</f>
         <v>118743.51999999999</v>
       </c>
-      <c r="L19" s="86">
+      <c r="L19" s="85">
         <v>12</v>
       </c>
-      <c r="M19" s="97">
+      <c r="M19" s="96">
         <f>L19*I19</f>
         <v>356230.55999999994</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="87">
+        <v>73</v>
+      </c>
+      <c r="P19" s="86">
         <f>SUM(I19:I22)*1.22</f>
         <v>104143.32359999999</v>
       </c>
@@ -1925,28 +2028,28 @@
       <c r="H20" s="43">
         <v>25</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="93">
         <f>C20*D20+C20*D20*(E20+F20+H20+G20)/100</f>
         <v>27543.599999999999</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="85">
         <v>4</v>
       </c>
-      <c r="K20" s="97">
+      <c r="K20" s="96">
         <f>J20*I20</f>
         <v>110174.39999999999</v>
       </c>
-      <c r="L20" s="86">
+      <c r="L20" s="85">
         <v>12</v>
       </c>
-      <c r="M20" s="97">
+      <c r="M20" s="96">
         <f>L20*I20</f>
         <v>330523.19999999995</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="87">
+        <v>128</v>
+      </c>
+      <c r="P20" s="86">
         <f>SUM(I19:I22)*2*1.22</f>
         <v>208286.64719999998</v>
       </c>
@@ -1972,28 +2075,28 @@
         <v>15</v>
       </c>
       <c r="H21" s="36"/>
-      <c r="I21" s="94">
+      <c r="I21" s="93">
         <f t="shared" si="0"/>
         <v>15726.7</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="85">
         <v>4</v>
       </c>
-      <c r="K21" s="97">
+      <c r="K21" s="96">
         <f t="shared" ref="K21:K25" si="1">J21*I21</f>
         <v>62906.8</v>
       </c>
-      <c r="L21" s="86">
+      <c r="L21" s="85">
         <v>12</v>
       </c>
-      <c r="M21" s="97">
+      <c r="M21" s="96">
         <f t="shared" ref="M21:M25" si="2">L21*I21</f>
         <v>188720.40000000002</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" s="87">
+        <v>129</v>
+      </c>
+      <c r="P21" s="86">
         <f>SUM(I19:I22)*3*1.22</f>
         <v>312429.97079999995</v>
       </c>
@@ -2017,28 +2120,28 @@
       <c r="F22" s="37"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="94">
+      <c r="I22" s="93">
         <f t="shared" si="0"/>
         <v>12407.2</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="85">
         <v>4</v>
       </c>
-      <c r="K22" s="97">
+      <c r="K22" s="96">
         <f t="shared" si="1"/>
         <v>49628.800000000003</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L22" s="85">
         <v>12</v>
       </c>
-      <c r="M22" s="97">
+      <c r="M22" s="96">
         <f t="shared" si="2"/>
         <v>148886.40000000002</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="87">
+        <v>74</v>
+      </c>
+      <c r="P22" s="86">
         <f>I26*1.22*3</f>
         <v>445532.45879999996</v>
       </c>
@@ -2064,26 +2167,26 @@
         <v>15</v>
       </c>
       <c r="H23" s="36"/>
-      <c r="I23" s="94">
+      <c r="I23" s="93">
         <f t="shared" si="0"/>
         <v>13838.8</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="85">
         <v>0</v>
       </c>
-      <c r="K23" s="97">
+      <c r="K23" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="85">
         <v>9</v>
       </c>
-      <c r="M23" s="97">
+      <c r="M23" s="96">
         <f t="shared" si="2"/>
         <v>124549.2</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="36" x14ac:dyDescent="0.35">
@@ -2107,26 +2210,26 @@
         <v>15</v>
       </c>
       <c r="H24" s="36"/>
-      <c r="I24" s="94">
+      <c r="I24" s="93">
         <f t="shared" si="0"/>
         <v>13838.8</v>
       </c>
-      <c r="J24" s="86">
+      <c r="J24" s="85">
         <v>0</v>
       </c>
-      <c r="K24" s="97">
+      <c r="K24" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="86">
+      <c r="L24" s="85">
         <v>9</v>
       </c>
-      <c r="M24" s="97">
+      <c r="M24" s="96">
         <f t="shared" si="2"/>
         <v>124549.2</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2134,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="50">
         <v>1</v>
@@ -2148,26 +2251,26 @@
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="95">
+      <c r="I25" s="94">
         <f t="shared" si="0"/>
         <v>8689.2000000000007</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J25" s="85">
         <v>0</v>
       </c>
-      <c r="K25" s="97">
+      <c r="K25" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="86">
+      <c r="L25" s="85">
         <v>9</v>
       </c>
-      <c r="M25" s="97">
+      <c r="M25" s="96">
         <f t="shared" si="2"/>
         <v>78202.8</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="53" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2184,17 +2287,17 @@
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="96">
+      <c r="I26" s="95">
         <f>SUM(I19:I25)</f>
         <v>121730.18</v>
       </c>
       <c r="J26" s="52"/>
-      <c r="K26" s="96">
+      <c r="K26" s="95">
         <f t="shared" ref="K26" si="3">SUM(K19:K25)</f>
         <v>341453.51999999996</v>
       </c>
       <c r="L26" s="52"/>
-      <c r="M26" s="96">
+      <c r="M26" s="95">
         <f t="shared" ref="M26" si="4">SUM(M19:M25)</f>
         <v>1351661.76</v>
       </c>
@@ -2206,7 +2309,7 @@
       <c r="H27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="87">
+      <c r="P27" s="86">
         <f>K26*1.22</f>
         <v>416573.29439999996</v>
       </c>
@@ -2223,21 +2326,13 @@
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="P28" s="87">
+      <c r="P28" s="86">
         <f>M26*1.22</f>
         <v>1649027.3472</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A8:I8"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L12:M12"/>
@@ -2251,6 +2346,14 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.23" bottom="0.2" header="0.2" footer="0.2"/>
@@ -2288,46 +2391,46 @@
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="143"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F7" s="17"/>
@@ -2335,51 +2438,51 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="A9" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:9" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
@@ -2394,26 +2497,26 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
+      <c r="A12" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1</v>
       </c>
-      <c r="B13" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="B13" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="22" t="s">
         <v>67</v>
       </c>
@@ -2432,9 +2535,9 @@
       <c r="A14" s="22">
         <v>2</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2447,9 +2550,9 @@
       <c r="A15" s="22">
         <v>3</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -2460,11 +2563,11 @@
     </row>
     <row r="16" spans="1:9" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -2474,26 +2577,26 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
+      <c r="B18" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="22" t="s">
         <v>49</v>
       </c>
@@ -2512,11 +2615,11 @@
       <c r="A19" s="22">
         <v>3</v>
       </c>
-      <c r="B19" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
+      <c r="B19" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="22" t="s">
         <v>49</v>
       </c>
@@ -2535,11 +2638,11 @@
       <c r="A20" s="65">
         <v>3</v>
       </c>
-      <c r="B20" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
+      <c r="B20" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="22" t="s">
         <v>49</v>
       </c>
@@ -2556,11 +2659,11 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -2570,26 +2673,26 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="139" t="s">
+      <c r="A22" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>1</v>
       </c>
-      <c r="B23" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
+      <c r="B23" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
       <c r="E23" s="22" t="s">
         <v>67</v>
       </c>
@@ -2608,9 +2711,9 @@
       <c r="A24" s="68">
         <v>2</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="68" t="s">
         <v>67</v>
       </c>
@@ -2620,11 +2723,11 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -2635,11 +2738,11 @@
     </row>
     <row r="26" spans="1:10" s="64" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="69"/>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
@@ -2683,10 +2786,10 @@
     <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2711,14 +2814,6 @@
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
@@ -2735,6 +2830,14 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
@@ -2769,47 +2872,47 @@
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E3" s="142"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F6" s="17"/>
@@ -2817,42 +2920,42 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
+      <c r="A8" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
     </row>
     <row r="10" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
@@ -2861,14 +2964,14 @@
       <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="149"/>
+      <c r="E10" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="150"/>
+      <c r="F10" s="149"/>
       <c r="G10" s="21" t="s">
         <v>36</v>
       </c>
@@ -2884,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148">
+      <c r="D11" s="146"/>
+      <c r="E11" s="147">
         <v>2</v>
       </c>
-      <c r="F11" s="148"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="23">
         <v>5</v>
       </c>
@@ -2909,16 +3012,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148">
+      <c r="D12" s="146"/>
+      <c r="E12" s="147">
         <v>2</v>
       </c>
-      <c r="F12" s="148"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="23">
         <v>5</v>
       </c>
@@ -2936,14 +3039,14 @@
       <c r="B13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148">
+      <c r="D13" s="146"/>
+      <c r="E13" s="147">
         <v>2</v>
       </c>
-      <c r="F13" s="148"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="23">
         <v>5</v>
       </c>
@@ -2955,16 +3058,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
       <c r="I14" s="24">
         <f>SUM(I11:I13)</f>
         <v>256000</v>
@@ -3004,19 +3107,14 @@
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
@@ -3029,6 +3127,11 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
@@ -3039,10 +3142,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3052,23 +3155,23 @@
     <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="28" customWidth="1"/>
     <col min="7" max="7" width="42" style="28" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>48</v>
       </c>
@@ -3080,60 +3183,58 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C3" s="154"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="149" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C3" s="153"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D4" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="117" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D5" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="152" t="s">
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="153" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-    </row>
-    <row r="9" spans="1:10" s="73" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+    </row>
+    <row r="9" spans="1:9" s="73" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>20</v>
       </c>
@@ -3157,139 +3258,443 @@
       </c>
       <c r="H9" s="72"/>
     </row>
-    <row r="10" spans="1:10" s="73" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="74">
+    <row r="10" spans="1:9" s="73" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="70"/>
+      <c r="B10" s="156" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="1:9" s="73" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="76" t="s">
+      <c r="B11" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E10" s="74">
-        <v>2000000</v>
-      </c>
-      <c r="F10" s="74">
-        <f>E10*D10</f>
-        <v>2000000</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="76"/>
-    </row>
-    <row r="11" spans="1:10" s="73" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="74">
-        <v>3</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="76">
-        <v>1</v>
-      </c>
-      <c r="E11" s="88">
-        <v>29999</v>
+      <c r="E11" s="74">
+        <v>1616837.76</v>
       </c>
       <c r="F11" s="74">
         <f>E11*D11</f>
+        <v>1616837.76</v>
+      </c>
+      <c r="G11" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="73" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="74">
+        <v>2</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="75">
+        <v>2</v>
+      </c>
+      <c r="E12" s="74">
+        <v>311391.35999999999</v>
+      </c>
+      <c r="F12" s="74">
+        <f>E12*D12</f>
+        <v>622782.71999999997</v>
+      </c>
+      <c r="G12" s="163"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="155"/>
+    </row>
+    <row r="13" spans="1:9" s="73" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="74">
+        <v>3</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="75">
+        <v>4</v>
+      </c>
+      <c r="E13" s="74">
+        <v>6698.88</v>
+      </c>
+      <c r="F13" s="74">
+        <f t="shared" ref="F13:F15" si="0">E13*D13</f>
+        <v>26795.52</v>
+      </c>
+      <c r="G13" s="163"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="1:9" s="73" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="74">
+        <v>4</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="75">
+        <v>2</v>
+      </c>
+      <c r="E14" s="74">
+        <v>6698.88</v>
+      </c>
+      <c r="F14" s="74">
+        <f t="shared" si="0"/>
+        <v>13397.76</v>
+      </c>
+      <c r="G14" s="163"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="155"/>
+    </row>
+    <row r="15" spans="1:9" s="73" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="74">
+        <v>5</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="75">
+        <v>2</v>
+      </c>
+      <c r="E15" s="74">
+        <v>10033.92</v>
+      </c>
+      <c r="F15" s="74">
+        <f t="shared" si="0"/>
+        <v>20067.84</v>
+      </c>
+      <c r="G15" s="164"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="155"/>
+    </row>
+    <row r="16" spans="1:9" s="73" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="74">
+        <v>6</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="75">
+        <v>1</v>
+      </c>
+      <c r="E16" s="87">
         <v>29999</v>
       </c>
-      <c r="G11" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="72"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
-        <f>SUM(E10:E11)</f>
-        <v>2029999</v>
-      </c>
-      <c r="F12" s="29">
-        <f>SUM(F10:F11)</f>
-        <v>2029999</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33" t="s">
+      <c r="F16" s="74">
+        <f>E16*D16</f>
+        <v>29999</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29">
+        <f>SUM(F11:F16)</f>
+        <v>2329880.5999999996</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="70"/>
+      <c r="B18" s="156" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+    </row>
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A19" s="74">
+        <v>7</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="75">
+        <v>1</v>
+      </c>
+      <c r="E19" s="74">
+        <v>801717.12</v>
+      </c>
+      <c r="F19" s="74">
+        <f>E19*D19</f>
+        <v>801717.12</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="74">
+        <v>8</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="75">
+        <v>1</v>
+      </c>
+      <c r="E20" s="74">
+        <v>304030.08000000002</v>
+      </c>
+      <c r="F20" s="74">
+        <f>E20*D20</f>
+        <v>304030.08000000002</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A21" s="74">
+        <v>9</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="75">
+        <v>4</v>
+      </c>
+      <c r="E21" s="74">
+        <v>6698.88</v>
+      </c>
+      <c r="F21" s="74">
+        <f t="shared" ref="F21:F23" si="1">E21*D21</f>
+        <v>26795.52</v>
+      </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+    </row>
+    <row r="22" spans="1:10" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A22" s="74">
+        <v>10</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="75">
+        <v>2</v>
+      </c>
+      <c r="E22" s="74">
+        <v>10033.92</v>
+      </c>
+      <c r="F22" s="74">
+        <f t="shared" si="1"/>
+        <v>20067.84</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="74">
+        <v>11</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="75">
+        <v>4</v>
+      </c>
+      <c r="E23" s="74">
+        <v>13167.36</v>
+      </c>
+      <c r="F23" s="74">
+        <f t="shared" si="1"/>
+        <v>52669.440000000002</v>
+      </c>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29">
+        <f>SUM(F19:F23)</f>
+        <v>1205280</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29">
+        <f>SUM(F17,F24)</f>
+        <v>3535160.5999999996</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="159"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="20"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="57"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H20" s="78"/>
+      <c r="H29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="20"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="57"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C18:E18"/>
+  <mergeCells count="9">
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="D1:G1"/>
@@ -3297,10 +3702,11 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G11:G15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="144" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3309,8 +3715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3725,7 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="93" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="92" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
@@ -3329,362 +3735,365 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="E1" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>107</v>
-      </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="92"/>
+      <c r="D3" s="91"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="92"/>
+      <c r="D4" s="91"/>
     </row>
     <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="92"/>
+      <c r="A5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="91"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="98">
+      <c r="A6" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="97">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*1.22</f>
         <v>104143.32359999999</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="97">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*1.22</f>
         <v>104143.32359999999</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="98">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*2*1.22</f>
         <v>208286.64719999998</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="99">
         <f>SUM(B6:D6)</f>
         <v>416573.29439999996</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="97">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
         <v>445532.45879999996</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="97">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
         <v>445532.45879999996</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="97">
         <f>SUM('Проект штатного розпису на 2019'!I19:I22)*3*1.22</f>
         <v>312429.97079999995</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="97">
         <f>SUM('Проект штатного розпису на 2019'!I19:I25)*3*1.22</f>
         <v>445532.45879999996</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="97">
         <f>SUM(F6:I6)</f>
         <v>1649027.3471999997</v>
       </c>
-      <c r="K6" s="98">
+      <c r="K6" s="97">
         <f>SUM(E6,J6)</f>
         <v>2065600.6415999997</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99">
+      <c r="A7" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98">
         <f>SUM('КЕКВ 2210 матеріали'!H21,'КЕКВ 2210 матеріали'!H25)</f>
         <v>4742.5</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <f t="shared" ref="E7:E12" si="0">SUM(B7:D7)</f>
         <v>4742.5</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97">
         <f t="shared" ref="J7:J12" si="1">SUM(F7:I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7" s="97">
         <f t="shared" ref="K7:K12" si="2">SUM(E7,J7)</f>
         <v>4742.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97">
+        <f>SUM('КЕКВ 3110 Обладнання'!F17)</f>
+        <v>2329880.5999999996</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99">
+        <f t="shared" si="0"/>
+        <v>2329880.5999999996</v>
+      </c>
+      <c r="F8" s="97">
+        <f>SUM('КЕКВ 3110 Обладнання'!F24)</f>
+        <v>1205280</v>
+      </c>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97">
+        <f t="shared" si="1"/>
+        <v>1205280</v>
+      </c>
+      <c r="K8" s="97">
+        <f t="shared" si="2"/>
+        <v>3535160.5999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98">
-        <f>SUM('КЕКВ 3110 Обладнання'!F12)</f>
-        <v>2029999</v>
-      </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100">
-        <f t="shared" si="0"/>
-        <v>2029999</v>
-      </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="98">
-        <f t="shared" si="2"/>
-        <v>2029999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98">
+      <c r="F9" s="97"/>
+      <c r="G9" s="97">
         <v>128000</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="97">
         <v>68000</v>
       </c>
-      <c r="I9" s="98">
+      <c r="I9" s="97">
         <v>60000</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="97">
         <f t="shared" si="1"/>
         <v>256000</v>
       </c>
-      <c r="K9" s="98">
+      <c r="K9" s="97">
         <f t="shared" si="2"/>
         <v>256000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="98">
+      <c r="A10" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="97">
         <f>SUM(B6:B9,B11)/9</f>
         <v>11571.480399999999</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="97">
         <f t="shared" ref="C10:I10" si="3">SUM(C6:C9,C11)/9</f>
-        <v>237126.92484444441</v>
-      </c>
-      <c r="D10" s="99">
+        <v>270447.10262222216</v>
+      </c>
+      <c r="D10" s="98">
         <f t="shared" si="3"/>
         <v>23669.905244444442</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="99">
         <f t="shared" si="0"/>
-        <v>272368.31048888888</v>
-      </c>
-      <c r="F10" s="98">
+        <v>305688.48826666659</v>
+      </c>
+      <c r="F10" s="97">
         <f t="shared" si="3"/>
-        <v>49503.606533333332</v>
-      </c>
-      <c r="G10" s="98">
+        <v>183423.60653333331</v>
+      </c>
+      <c r="G10" s="97">
         <f t="shared" si="3"/>
         <v>63725.828755555543</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="97">
         <f t="shared" si="3"/>
         <v>48936.66342222222</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="97">
         <f t="shared" si="3"/>
         <v>62836.939866666653</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="97">
         <f t="shared" si="1"/>
-        <v>225003.03857777774</v>
-      </c>
-      <c r="K10" s="98">
+        <v>358923.0385777778</v>
+      </c>
+      <c r="K10" s="97">
         <f t="shared" si="2"/>
-        <v>497371.34906666662</v>
+        <v>664611.52684444445</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100">
+      <c r="A11" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98">
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97">
         <v>60000</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="97">
         <v>60000</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="97">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="K11" s="98">
+      <c r="K11" s="97">
         <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="98">
+      <c r="A12" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="97">
         <f>SUM(B6:B11)</f>
         <v>115714.80399999999</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="97">
         <f t="shared" ref="C12:I12" si="4">SUM(C6:C11)</f>
-        <v>2371269.248444444</v>
-      </c>
-      <c r="D12" s="99">
+        <v>2704471.0262222216</v>
+      </c>
+      <c r="D12" s="98">
         <f t="shared" si="4"/>
         <v>236699.05244444442</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="99">
         <f t="shared" si="0"/>
-        <v>2723683.1048888885</v>
-      </c>
-      <c r="F12" s="98">
+        <v>3056884.8826666661</v>
+      </c>
+      <c r="F12" s="97">
         <f t="shared" si="4"/>
-        <v>495036.06533333327</v>
-      </c>
-      <c r="G12" s="98">
+        <v>1834236.0653333333</v>
+      </c>
+      <c r="G12" s="97">
         <f t="shared" si="4"/>
         <v>637258.28755555546</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="97">
         <f t="shared" si="4"/>
         <v>489366.63422222214</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="97">
         <f t="shared" si="4"/>
         <v>628369.39866666659</v>
       </c>
-      <c r="J12" s="98">
+      <c r="J12" s="97">
         <f t="shared" si="1"/>
-        <v>2250030.3857777771</v>
-      </c>
-      <c r="K12" s="98">
+        <v>3589230.3857777771</v>
+      </c>
+      <c r="K12" s="97">
         <f t="shared" si="2"/>
-        <v>4973713.4906666651</v>
+        <v>6646115.2684444431</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="98">
+      <c r="A13" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="97">
         <f>SUM(B12:C12)</f>
-        <v>2486984.052444444</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+        <v>2820185.8302222216</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="98">
+      <c r="A15" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="97">
         <f>SUM(B13,D12)</f>
-        <v>2723683.1048888885</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="98">
+        <v>3056884.8826666661</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="97">
         <f>SUM(F12:I12)</f>
-        <v>2250030.3857777771</v>
-      </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
+        <v>3589230.3857777771</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
